--- a/resultados/speedup.xlsx
+++ b/resultados/speedup.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>cores</t>
   </si>
@@ -103,6 +103,36 @@
   </si>
   <si>
     <t>speed_8_node31</t>
+  </si>
+  <si>
+    <t>bajo_1</t>
+  </si>
+  <si>
+    <t>bajo_2</t>
+  </si>
+  <si>
+    <t>bajo_3</t>
+  </si>
+  <si>
+    <t>medio_1</t>
+  </si>
+  <si>
+    <t>medio_2</t>
+  </si>
+  <si>
+    <t>medio_3</t>
+  </si>
+  <si>
+    <t>alto_1</t>
+  </si>
+  <si>
+    <t>alto_2</t>
+  </si>
+  <si>
+    <t>alto_3</t>
+  </si>
+  <si>
+    <t>eficiencia</t>
   </si>
 </sst>
 </file>
@@ -138,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -170,11 +200,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -189,6 +243,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,11 +337,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="97477376"/>
-        <c:axId val="97479296"/>
+        <c:axId val="78402304"/>
+        <c:axId val="78404224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97477376"/>
+        <c:axId val="78402304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -299,17 +364,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97479296"/>
+        <c:crossAx val="78404224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97479296"/>
+        <c:axId val="78404224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,11 +395,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97477376"/>
+        <c:crossAx val="78402304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -344,7 +407,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1030,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1042,9 +1105,10 @@
     <col min="2" max="3" width="11.42578125" style="6"/>
     <col min="4" max="4" width="13.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="6"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" s="2"/>
       <c r="B1" s="5" t="s">
         <v>19</v>
@@ -1058,8 +1122,32 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1073,11 +1161,31 @@
         <v>32</v>
       </c>
       <c r="E3" s="5">
-        <f>B3/C3</f>
+        <f t="shared" ref="E3:E8" si="0">B3/C3</f>
         <v>24.175000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1572</v>
+      </c>
+      <c r="I3" s="5">
+        <v>59</v>
+      </c>
+      <c r="J3" s="5">
+        <v>32</v>
+      </c>
+      <c r="K3" s="5">
+        <f>H3/I3</f>
+        <v>26.64406779661017</v>
+      </c>
+      <c r="L3" s="2">
+        <f>K3/J3</f>
+        <v>0.8326271186440678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1091,11 +1199,31 @@
         <v>32</v>
       </c>
       <c r="E4" s="5">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1571</v>
+      </c>
+      <c r="I4" s="5">
+        <v>59</v>
+      </c>
+      <c r="J4" s="5">
+        <v>32</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K11" si="1">H4/I4</f>
+        <v>26.627118644067796</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L11" si="2">K4/J4</f>
+        <v>0.83209745762711862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1109,11 +1237,31 @@
         <v>32</v>
       </c>
       <c r="E5" s="5">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>21.487179487179485</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1183</v>
+      </c>
+      <c r="I5" s="5">
+        <v>44</v>
+      </c>
+      <c r="J5" s="5">
+        <v>32</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
+        <v>26.886363636363637</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.84019886363636365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1127,11 +1275,31 @@
         <v>16</v>
       </c>
       <c r="E6" s="5">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>16.555555555555557</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3002</v>
+      </c>
+      <c r="I6" s="5">
+        <v>119</v>
+      </c>
+      <c r="J6" s="5">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="1"/>
+        <v>25.22689075630252</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78834033613445376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1145,11 +1313,31 @@
         <v>16</v>
       </c>
       <c r="E7" s="5">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>16.444444444444443</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2195</v>
+      </c>
+      <c r="I7" s="5">
+        <v>82</v>
+      </c>
+      <c r="J7" s="5">
+        <v>32</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="1"/>
+        <v>26.76829268292683</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83650914634146345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1163,11 +1351,31 @@
         <v>16</v>
       </c>
       <c r="E8" s="5">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>14.117647058823529</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3007</v>
+      </c>
+      <c r="I8" s="5">
+        <v>120</v>
+      </c>
+      <c r="J8" s="5">
+        <v>32</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="1"/>
+        <v>25.058333333333334</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78307291666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1181,11 +1389,27 @@
         <v>8</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E9:E11" si="0">B9/C9</f>
+        <f t="shared" ref="E9:E10" si="3">B9/C9</f>
         <v>7.8472222222222223</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <v>32</v>
+      </c>
+      <c r="K9" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
@@ -1199,11 +1423,51 @@
         <v>8</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.2777777777777786</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>32</v>
+      </c>
+      <c r="K10" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
+        <v>32</v>
+      </c>
+      <c r="K11" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1215,11 +1479,16 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
-        <f>B13/C13</f>
+        <f t="shared" ref="E13:E18" si="4">B13/C13</f>
         <v>23.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1233,11 +1502,16 @@
         <v>4</v>
       </c>
       <c r="E14" s="5">
-        <f>B14/C14</f>
+        <f t="shared" si="4"/>
         <v>13.607142857142858</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1251,11 +1525,16 @@
         <v>7</v>
       </c>
       <c r="E15" s="5">
-        <f>B15/C15</f>
+        <f t="shared" si="4"/>
         <v>15.071428571428571</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1269,11 +1548,16 @@
         <v>8</v>
       </c>
       <c r="E16" s="5">
-        <f>B16/C16</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1287,11 +1571,16 @@
         <v>64</v>
       </c>
       <c r="E17" s="5">
-        <f>B17/C17</f>
+        <f t="shared" si="4"/>
         <v>17.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1305,39 +1594,51 @@
         <v>12</v>
       </c>
       <c r="E18" s="5">
-        <f>B18/C18</f>
+        <f t="shared" si="4"/>
         <v>7.4308943089430892</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:11">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:11">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>

--- a/resultados/speedup.xlsx
+++ b/resultados/speedup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>procesadores</t>
   </si>
@@ -53,10 +53,19 @@
     <t>eficiencia</t>
   </si>
   <si>
-    <t>serial(m)</t>
-  </si>
-  <si>
-    <t>paralelo(m)</t>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Paralelo</t>
+  </si>
+  <si>
+    <t>Serial</t>
   </si>
 </sst>
 </file>
@@ -159,6 +168,256 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$M$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bajo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$N$4:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$M$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bajo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$O$4:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="79914880"/>
+        <c:axId val="79916416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79914880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>ráfico</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79916416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79916416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79914880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -461,7 +720,7 @@
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -469,10 +728,10 @@
       <c r="E1" s="5"/>
       <c r="G1" s="7"/>
       <c r="H1" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>0</v>
@@ -484,7 +743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -497,7 +756,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -523,8 +782,12 @@
         <f>K3/J3</f>
         <v>0.8326271186440678</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <f>AVERAGE(K3:K5)</f>
+        <v>26.719183359013869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -550,8 +813,14 @@
         <f t="shared" ref="L4:L11" si="1">K4/J4</f>
         <v>0.83209745762711862</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -577,8 +846,14 @@
         <f t="shared" si="1"/>
         <v>0.84019886363636365</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -604,8 +879,18 @@
         <f t="shared" si="1"/>
         <v>0.78834033613445376</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <f>AVERAGE(K6:K8)</f>
+        <v>25.684505590854229</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -632,7 +917,7 @@
         <v>0.83650914634146345</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -659,7 +944,7 @@
         <v>0.78307291666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:15">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -685,8 +970,12 @@
         <f t="shared" si="1"/>
         <v>0.82954545454545459</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <f>AVERAGE(K9:K11)</f>
+        <v>24.852035217414493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="9"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -713,7 +1002,7 @@
         <v>0.74538934426229508</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -740,7 +1029,7 @@
         <v>0.75494350282485878</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -751,7 +1040,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -770,7 +1059,7 @@
         <v>0.80474712674252702</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -789,7 +1078,7 @@
         <v>3.7330692138496137E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -801,7 +1090,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -813,7 +1102,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -821,11 +1110,23 @@
       <c r="E17" s="5"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5">
+        <f>STDEV(H3:H5)</f>
+        <v>224.30113686738193</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -833,11 +1134,14 @@
       <c r="E18" s="5"/>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5">
+        <f>STDEV(H6:H8)</f>
+        <v>467.37172928337668</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -845,39 +1149,42 @@
       <c r="E19" s="5"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="5">
+        <f>STDEV(H9:H11)</f>
+        <v>809.80265085595522</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -887,6 +1194,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
